--- a/etf_data.xlsx
+++ b/etf_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,20 +471,25 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>收益分配日</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>年初至今總報酬率</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>一個月總報酬率</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>前一年管理費</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>保管銀行</t>
         </is>
@@ -493,7 +498,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -518,7 +523,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>258,687.00</t>
+          <t>259,196.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -528,20 +533,25 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>-1.02%</t>
+          <t>於每年三、六、九、十二月起第三十五個營業日前(含)進行分配</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-1.17%</t>
+          <t>-0.50%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>-0.65%</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>0.18 (含 0.08 非管理費用)</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>玉山銀行</t>
         </is>
@@ -550,7 +560,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -575,7 +585,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>33,576.00</t>
+          <t>33,602.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -585,20 +595,25 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>-0.83%</t>
+          <t>每季</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-1.07%</t>
+          <t>-0.29%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
+          <t>-0.54%</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
           <t>0.2 (含 0.1 非管理費用)</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>中國信託銀行</t>
         </is>
@@ -607,7 +622,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-25</t>
+          <t>2024-11-26</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -632,7 +647,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>12,819.00</t>
+          <t>12,830.00</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -642,20 +657,25 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>9.10%</t>
+          <t>每年三月三十一日、六月三十日、九月三十日、十二月三十一日為收益分配評價日，進行收益分配評價計算</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1.24%</t>
+          <t>8.89%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
+          <t>1.05%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
           <t>0.19 (含 0.12 非管理費用)</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>第一商業銀行</t>
         </is>

--- a/etf_data.xlsx
+++ b/etf_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,119 +498,119 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00687B</t>
+          <t>0052</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.26%</t>
+          <t>3.77%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>259,196.00</t>
+          <t>14,550.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2024/09/18</t>
+          <t>2024/04/18</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>於每年三、六、九、十二月起第三十五個營業日前(含)進行分配</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>-0.50%</t>
+          <t>47.23%</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>-0.65%</t>
+          <t>-5.40%</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>0.18 (含 0.08 非管理費用)</t>
+          <t>0.25 (含 0.10 非管理費用)</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>玉山銀行</t>
+          <t>台新國際商業銀行</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00696B</t>
+          <t>0053</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.274</t>
+          <t>1.90</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>2.72%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>33,602.00</t>
+          <t>546.00</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2024/10/17</t>
+          <t>2024/11/18</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>每季</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>40.27%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>-0.54%</t>
+          <t>-4.47%</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>0.2 (含 0.1 非管理費用)</t>
+          <t>0.6 (含 0.2 非管理費用)</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -622,62 +622,7814 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-11-26</t>
+          <t>2024-11-27</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>0055</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2,034.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>20.82%</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>-0.78%</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.54 (含 0.14 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>國泰世華商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>00662</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>39,092.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>30.76%</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.55 (含 0.25 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>中國信託商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>00671R</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1,453.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>-18.62%</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>-2.21%</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>1.07 (含 0.18 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>中國信託商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>00678</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>221.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>10.16%</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>-0.54%</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>1.59 (含 0.74 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>玉山商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>00712</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.96%</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>36,209.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2024/09/19</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>3.36%</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>1.77%</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>4.06 (含 3.81 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>玉山商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>00714</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>0.123</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.55%</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>685.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2024/10/22</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>17.07%</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1.1 (含 0.25 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>兆豐國際商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>00728</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.83%</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1,545.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2024/01/19</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>16.62%</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>-4.64%</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.55 (含 0.15 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>玉山商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>00735</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.43%</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>734.00</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2024/07/16</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>15.21%</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>-4.11%</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.96 (含 0.61 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>玉山商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>00737</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>661.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>9.77%</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>9.56%</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>1.54 (含 0.69 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>玉山商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>00757</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>34,718.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>47.59%</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>5.18%</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1.14 (含 0.29 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>玉山銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>00762</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2,854.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>40.02%</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>8.26%</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>1.27 (含 0.37 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>華南商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>00770</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>9.33%</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2,536.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2024/01/17</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>42.60%</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>4.94%</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.62 (含 0.32 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>玉山銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>00830</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>29,864.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2024/01/17</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>23.92%</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>-5.03%</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.62 (含 0.27 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>玉山商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>00851</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>330.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>34.30%</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>4.67%</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>2.07 (含 1.32 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>台灣中小企銀</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>00861</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4,248.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>22.27%</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>-0.59%</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>1.22 (含 0.32 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>第一商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>00875</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>555.00</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>19.01%</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>8.37%</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1.53 (含 0.63 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>彰化商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>00876</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3,837.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>9.94%</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>-3.09%</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1.23 (含 0.33 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>00877</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3,068.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>21.06%</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>-7.90%</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1.25 (含 0.35 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>台新銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>00881</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.18%</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>58,949.00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2024/08/16</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>40.44%</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>-4.21%</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.51 (含 0.11 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>第一商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>00886</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>270.00</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>34.48%</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>4.76%</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.85 (含 0.50 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>兆豐國際商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>00887</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3,653.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>-24.16%</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>-1.84%</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1.31 (含 0.41 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>合作金庫銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>00891</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.71%</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>18,500.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>13.84%</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.58 (含 0.18 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>00892</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.39%</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>6,126.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>20.49%</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>-5.89%</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>0.62 (含 0.22 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>中國信託商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>00895</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6,482.00</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>54.74%</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>1.22 (含 0.32 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>00896</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.55%</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3,868.00</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2024/09/18</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>16.61%</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>-3.04%</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>0.6 (含 0.2 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>00897</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1,743.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>9.91%</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>2.59%</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1.3 (含 0.45 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>00898</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1,684.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>-0.41%</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>-0.41%</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1.39 (含 0.54 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>00899</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>442.00</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>-24.42%</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>-5.83%</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1.593 (含 0.693 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>彰化商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>00901</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>0.628</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.14%</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1,852.00</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2024/11/26</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>34.47%</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>-3.17%</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>0.62 (含 0.22 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>合作金庫銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>00902</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5,361.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>4.12%</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>-0.19%</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1.25 (含 0.35 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>華南商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>00903</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2,067.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>20.45%</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>3.46%</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1.2 (含 0.4 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>彰化商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>00904</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1,929.00</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2024/10/21</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0.74 (含 0.34 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>合作金庫銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>00908</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>0.133</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.97%</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>539.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>5.00%</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>-4.30%</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.33 (含 0.68 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>彰化商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>00911</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.7%</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>720.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2024/07/17</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>17.21%</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>-4.76%</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1.69 (含 0.84 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>華南商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>00679B</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.17%</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>313,637.00</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>每年一月三十一日、四月三十日、七月三十一日、十月三十一日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>-0.27%</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1.77%</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>0.16 (含 0.06 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>華南商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>00687B</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>263,501.00</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2024/09/18</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>於每年三、六、九、十二月起第三十五個營業日前(含)進行分配</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>0.70%</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1.88%</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>0.18 (含 0.08 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>玉山銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>00694B</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>0.268</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.64%</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>7,738.00</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>每季</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>9.22%</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>0.19 (含 0.12 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>00695B</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>0.238</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.65%</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1,208.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>每季</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>5.92%</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>1.18%</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>0.47 (含 0.27 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>00696B</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>0.274</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>34,311.00</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>每季</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>0.98%</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>2.02%</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>0.2 (含 0.1 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>00697B</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.59%</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1,867.00</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>2024/09/18</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>每年二月、五月、八月及十一月最後一個日曆日為收益分配評價日，進行收益分配評價計算</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>5.89%</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>1.33%</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>0.55 (含 0.35 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>第一商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>00719B</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>0.35</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>1.1%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
         <is>
           <t>12,830.00</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>2024/10/17</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>每年三月三十一日、六月三十日、九月三十日、十二月三十一日為收益分配評價日，進行收益分配評價計算</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>8.89%</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>9.17%</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>1.24%</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>0.19 (含 0.12 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>第一商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>00764B</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>0.362</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.09%</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>44,742.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>2024/09/23</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>每年二、五、八及十一月最後一個日曆日為收益評價日</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>0.60%</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>2.06%</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>0.17 (含 0.07 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>00768B</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>25,936.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>1.17%</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>0.18 (含 0.08 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>00779B</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>0.283</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>37,206.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2024/09/19</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>每年2月、5月、8月及11月最後日曆日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>0.43%</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>0.14 (含 0.06 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>彰化商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>00795B</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>69,688.00</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>季配息</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>1.95%</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>0.15 (含 0.07 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>00847B</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>261.00</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>季配息（收益評價日為每年一月、四月、七月及十月最後一個日曆日）</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>4.56%</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>2.00%</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>0.63 (含 0.33 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>第一商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>00856B</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>306.00</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2024/09/20</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>季配，收益評價日為2月、5月、8月及11月最後日曆日</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>9.21%</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>1.40%</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>0.25 (含 0.14 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>00857B</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.09%</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>23,579.00</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2024/09/20</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>季配，收益評價日為2月、5月、8月及11月最後日曆日</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>0.81%</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>1.90%</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>0.22 (含 0.12 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>00859B</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>0.369</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>194.00</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2024/09/23</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>每年二、五、八及十一月最後一個日曆日為收益評價日</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>10.32%</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>1.54%</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>0.21 (含 0.11 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>00864B</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5,913.00</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>無</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>0.19 (含 0.09 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>00865B</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>758.00</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>9.64%</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>1.40%</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>0.26 (含 0.16 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>00931B</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.92%</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>36,657.00</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2024/10/18</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>季分配</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>1.86%</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>玉山銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>00720B</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.39%</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>154,925.00</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>每年三月三十一日、六月三十日、九月三十日、十二月三十一日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>5.89%</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>2.77%</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>0.46 (含 0.16 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>00722B</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.34%</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>60,819.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2024/10/22</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>每年三、六、九及十二月最後一個日曆日為收益評價日</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>6.02%</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>2.42%</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>0.29 (含 0.09 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>00723B</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>0.442</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.28%</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>51,389.00</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2024/10/22</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>每年三、六、九及十二月最後一個日曆日為收益評價日</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>3.70%</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>2.18%</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>0.29 (含 0.09 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>00724B</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0.473</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>101,810.00</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2024/10/22</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>每年三、六、九及十二月最後一個日曆日為收益評價日</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>9.01%</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>1.77%</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>0.29 (含 0.09 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>00725B</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>0.685</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.76%</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>125,563.00</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>以每年三、六、九及十二月最後一個日曆日為評價日</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>7.29%</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>2.85%</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>0.38 (含 0.10 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>玉山商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>00734B</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>486.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2024/10/21</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>以每年三、六、九及十二月最後一個日曆日為評價日</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>5.12%</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>0.9 (含 0.55 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>臺灣銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>00740B</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>0.213</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.52%</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>64,342.00</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>每月</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>7.53%</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>2.92%</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>00746B</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>0.422</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.1%</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>91,172.00</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>每季</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>5.06%</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>1.68%</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>0.29 (含 0.11 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>第一商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>00749B</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>0.435</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.31%</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>30,633.00</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2024/10/21</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>每年3月、6月、9月及12月最後日曆日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>5.15%</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>1.32%</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>0.31 (含 0.11 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>合作金庫銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>00750B</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.01%</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5,300.00</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2024/10/21</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>每年3月、6月、9月及12月最後日曆日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>4.71%</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>2.21%</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>0.34 (含 0.14 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>上海商業儲蓄銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>00751B</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.26%</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>162,466.00</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2024/09/18</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>每年二月、五月、八月及十一月最後一個日曆日為收益分配評價日，進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>2.75%</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>0.26 (含 0.08 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>華南商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>00754B</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.22%</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>30,327.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2024/11/21</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>每年一、四、七及十月最後一個日曆日為收益評價日</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>3.50%</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>1.85%</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>0.37 (含 0.17 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>玉山商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>00755B</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.3%</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>7,593.00</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2024/11/21</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>每年一、四、七及十月最後一個日曆日為收益評價日</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>7.03%</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>0.45 (含 0.15 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>玉山商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>00759B</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.08%</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2,777.00</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2024/11/19</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>季配</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>4.21%</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>1.62%</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>0.59 (含 0.19 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>00761B</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>103,116.00</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>以每年一、四、七及十月最後一個日曆日為評價日</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>3.67%</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>1.78%</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>0.28 (含 0.10 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>玉山商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>00772B</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>0.135</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.38%</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>126,724.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>自109/3/20起配息頻率改為「月配息」（收益評價日為每月最後一個日曆日）</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>3.70%</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>0.31 (含 0.11 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>00773B</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>0.138</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>100,611.00</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>自109/3/20起配息頻率改為「月配息」（收益評價日為每月最後一個日曆日）</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>7.21%</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>1.66%</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>0.29 (含 0.09 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>華南商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>00775B</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.66%</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7,188.00</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2024/11/20</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>3.52%</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>1.98%</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>0.54 (含 0.24 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>台新銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>00777B</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>0.425</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.13%</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>63,293.00</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2024/09/19</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>每月最後一個日曆日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>3.35%</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>1.96%</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>0.25 (含 0.07 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>兆豐國際商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>00778B</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.17%</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>56,122.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2024/09/19</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>每月最後一個日曆日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>6.86%</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>0.28 (含 0.08 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>臺灣銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>00780B</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.02%</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>11,554.00</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>以每年一、四、七及十月最後一個日曆日為評價日</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>8.80%</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>1.40%</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>0.44 (含 0.19 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>00781B</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.22%</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>207.00</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2024/09/18</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>以每年二、五、八及十一月最後一個日曆日為評價日</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>0.91%</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>0.96 (含 0.66 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>00782B</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.45%</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>640.00</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>以每年三、六、九及十二月最後一個日曆日為評價日</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>6.50%</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>2.53%</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>0.61 (含 0.31 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>玉山銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>00785B</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.16%</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>34,366.00</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>季分配</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>8.19%</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>1.07%</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>0.3 (含 0.1 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>彰化商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>00786B</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.22%</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1,437.00</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>每年一月三十一日、四月三十日、七月三十一日、十月三十一日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>7.09%</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>1.44%</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0.55 (含 0.25 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>第一商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>00787B</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>1.37%</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>640.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2024/09/18</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>每年二月、五月、八月、十一月最後一個日曆日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>4.35%</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>1.66%</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0.62 (含 0.32 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>00788B</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.35%</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1,276.00</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>每年三月三十一日、六月三十日、九月三十日、十二月三十一日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>5.93%</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>2.30%</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0.55 (含 0.25 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>華南商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>00789B</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>20,788.00</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2024/10/22</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>季配</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>3.17%</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>2.02%</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0.44 (含 0.19 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>00790B</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>119.00</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2024/10/22</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>季配</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>10.42%</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>1.34%</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>1.19 (含 0.79 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>00791B</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>0.562</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.99%</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>14,458.00</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2024/10/22</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>季配</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>10.99%</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>1.51%</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>0.37 (含 0.12 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>00792B</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>0.437</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>61,892.00</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2024/09/23</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>每年二、五、八及十一月最後一個日曆日為收益評價日</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>4.39%</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>1.83%</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>0.28 (含 0.08 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>玉山商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>00793B</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>0.436</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>1.24%</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>135.00</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2024/09/23</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>每年二、五、八及十一月最後一個日曆日為收益評價日</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>3.76%</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>1.70%</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>0.65 (含 0.35 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>合作金庫銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>00799B</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>265.00</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>以每年一、四、七及十月最後一個日曆日為評價日</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>4.53%</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>1.73%</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>0.78 (含 0.48 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>中國信託商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>00834B</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>0.407</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>1.12%</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>724.00</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2024/10/22</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>以每年三、六、九及十二月最後一個日曆日為評價日</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>8.05%</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>1.70%</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>0.46 (含 0.26 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>00836B</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.16%</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>12,089.00</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2024/09/20</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>季配，收益評價日為2月、5月、8月及11月最後日曆日</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>3.06%</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>1.98%</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>0.29 (含 0.09 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>華南商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>00840B</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>0.325</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1%</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1,933.00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>每月最後一個日曆日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>4.62%</t>
+        </is>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>2.05%</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>0.63 (含 0.23 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>00841B</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>1.06%</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2,238.00</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>每年1月、4月、7月及10月最後日曆日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>3.37%</t>
+        </is>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>1.81%</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>0.64 (含 0.24 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>00842B</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>332.00</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2024/10/21</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>以每年三、六、九及十二月最後一個日曆日為評價日</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>7.56%</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>1.62%</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>0.59 (含 0.39 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>第一商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>00844B</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>1.69%</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6,485.00</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2024/11/20</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>每季收益分配</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>0.33 (含 0.13 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>台灣中小企銀</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>00845B</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>0.371</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.09%</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6,746.00</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>季分配</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>9.21%</t>
+        </is>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>0.92%</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>0.44 (含 0.14 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>台新銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>00846B</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>0.449</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.22%</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2,709.00</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>季分配</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>11.07%</t>
+        </is>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>0.93%</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>0.64 (含 0.24 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>台新銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>00853B</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
         <is>
           <t>1.05%</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0.19 (含 0.12 非管理費用)</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3,295.00</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2024/09/20</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>季分配，每年2月、5月、8月、11月最後一個日曆日進行收益分配評價</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>3.32%</t>
+        </is>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>1.98%</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>0.5 (含 0.2 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>華南商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>00860B</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>0.479</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.21%</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>163.00</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2024/11/21</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>每年一、四、七及十月最後一個日曆日為收益評價日</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>9.57%</t>
+        </is>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>1.70%</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>0.44 (含 0.24 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>00862B</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>24,929.00</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2024/09/18</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>季配息（收益評價日為每年二月、五月、八月及十一月最後一個日曆日）</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>6.83%</t>
+        </is>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>3.10%</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>0.43 (含 0.15 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>台新銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>00863B</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.17%</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>17,517.00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2024/09/18</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>季配息（收益評價日為每年二月、五月、八月及十一月最後一個日曆日）</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>6.55%</t>
+        </is>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>2.35%</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>0.37 (含 0.12 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
         <is>
           <t>第一商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>00867B</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.28%</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>17,129.00</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2024/11/20</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>每季收益分配</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>6.31%</t>
+        </is>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>2.51%</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>0.29 (含 0.09 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>台新銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>00883B</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>0.145</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.44%</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>324.00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>季配息（收益評價日為每年二月、五月、八月及十一月最後一個日曆日）</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>5.55%</t>
+        </is>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>3.05%</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>0.64 (含 0.44 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>兆豐國際商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>00890B</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.23%</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>783.00</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2024/11/18</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>每月最後一個日曆日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>7.13%</t>
+        </is>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>3.03%</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>0.58 (含 0.26 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>兆豐國際商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>00937B</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>0.082</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.51%</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>244,086.00</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2024/11/21</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>每月</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>2.75%</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>彰化商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>00942B</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.46%</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>13,027.00</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2024/11/15</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>每月</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>2.03%</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>台灣中小企銀</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>00711B</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.15%</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>15,734.00</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2024/09/19</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>5.70%</t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>1.65%</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>0.51 (含 0.16 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>玉山商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>00718B</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>0.371</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>7,150.00</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2024/08/16</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>收益評價日為每年1月31日及7月31日</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>7.88%</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>0.24%</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>0.47 (含 0.17 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>00726B</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.75%</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>39,900.00</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>以每年三、六、九及十二月最後一個日曆日為評價日</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>7.28%</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>0.35 (含 0.10 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>中國信託商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>00756B</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>0.498</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.52%</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>39,426.00</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2024/11/21</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>每年一、四、七及十月最後一個日曆日為收益評價日</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>3.25%</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>0.95%</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>0.34 (含 0.09 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>華南商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>00760B</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.27%</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>23,604.00</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2024/11/19</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>季配</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>9.49%</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>1.74%</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>0.43 (含 0.18 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>00784B</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.67%</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>118.00</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>季分配</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>9.18%</t>
+        </is>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>1.72%</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>0.67 (含 0.27 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>第一商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>00794B</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.84%</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>527.00</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2024/11/21</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>每年一、四、七及十月最後一個日曆日為收益評價日</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>9.83%</t>
+        </is>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>0.03%</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>0.53 (含 0.23 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>華南商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>00848B</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.23%</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4,893.00</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>季配息（收益評價日為每年三月、六月、九月及十二月最後一個日曆日）</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>7.40%</t>
+        </is>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>0.49 (含 0.14 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>台新銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>00849B</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.87%</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>19,338.00</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>季配息（收益評價日為每年三月、六月、九月及十二月最後一個日曆日）</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>9.90%</t>
+        </is>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>1.39%</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>0.41 (含 0.13 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>華南商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>00870B</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.24%</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>18,008.00</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>每年三月三十一日、六月三十日、九月三十日、十二月三十一日進行收益分配之評價</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>2.23%</t>
+        </is>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>1.63%</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>0.33 (含 0.03 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>上海商業儲蓄銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>00884B</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.94%</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2,365.00</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2024/10/17</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>季配息（收益評價日為每年三月、六月、九月及十二月最後一個日曆日）</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>3.54%</t>
+        </is>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>1.60%</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>0.52 (含 0.22 非管理費用)</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>彰化商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>00635U</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1,414.00</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>21.07%</t>
+        </is>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>-4.66%</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>臺灣銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>00642U</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2,727.00</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>3.56%</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>2.64%</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>00673R</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3,007.00</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>-9.24%</t>
+        </is>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>-2.83%</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>兆豐國際商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>00674R</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>494.00</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>-18.68%</t>
+        </is>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>4.59%</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>臺灣銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>00693U</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>647.00</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>-25.11%</t>
+        </is>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>0.30%</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>彰化商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>00708L</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>1,740.00</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>43.86%</t>
+        </is>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>-9.31%</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>臺灣銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>00715L</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8,486.00</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>-1.68%</t>
+        </is>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>4.64%</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>臺灣銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>00738U</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1,593.00</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr">
+        <is>
+          <t>21.52%</t>
+        </is>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>-10.34%</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>土地銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>00763U</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>657.00</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr">
+        <is>
+          <t>3.15%</t>
+        </is>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>-5.25%</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>永豐商業銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>00682U</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>134.00</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>6.84%</t>
+        </is>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>2.60%</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>00683L</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>362.00</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>14.34%</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>5.24%</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>00684R</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>114.00</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>-7.57%</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>-2.42%</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>中國信託銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>00706L</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5,089.00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>-22.50%</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>0.16%</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>玉山銀行</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2024-11-27</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>00707R</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>190.00</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>13.50%</t>
+        </is>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>1.42%</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>玉山銀行</t>
         </is>
       </c>
     </row>
